--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>839523.5118038143</v>
+        <v>859872.6258366058</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12157779.51246666</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3999173.134613249</v>
+        <v>2820057.50789716</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6920181.017584102</v>
+        <v>7419322.709899409</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
@@ -677,7 +679,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>256.8116338960344</v>
       </c>
       <c r="Y2" t="n">
-        <v>201.0909121759209</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -823,19 +825,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>6.13287386842549</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>260.4446813871642</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>261.8355780972426</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -905,13 +907,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>207.0919361266095</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>16.66918694452613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.15366458399251</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>362.4273643526714</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -1184,22 +1186,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>230.5957906539333</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1376,13 +1378,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>253.4730871880425</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>161.5086652982957</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1585,16 +1587,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>164.7047943182447</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1619,10 +1621,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>325.9925264208669</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>178.6464323367722</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,10 +2004,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>79.68036568810936</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -2020,7 +2022,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>99.22889911337413</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2239,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>92.01098438110735</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>185.5814131054196</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2488,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2536,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>244.3275881150121</v>
       </c>
       <c r="X25" t="n">
-        <v>140.0983077446299</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2719,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>104.9037564455526</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>156.3950745845505</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2953,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3187,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170415</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>11.12043047005107</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W37" t="n">
-        <v>244.3275881150121</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3718,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>327.6195902049947</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>135.1170924112295</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3898,19 +3900,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>60.15466974967015</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>144.1919352414386</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>151.3676469906838</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -4034,16 +4036,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>40.79871210679592</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>237.3263355412572</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1181.780241018899</v>
+        <v>2510.296542000307</v>
       </c>
       <c r="C2" t="n">
-        <v>1181.780241018899</v>
+        <v>2083.395812013608</v>
       </c>
       <c r="D2" t="n">
-        <v>1181.780241018899</v>
+        <v>1660.103191198608</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.780241018899</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="F2" t="n">
-        <v>756.6560592082994</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G2" t="n">
-        <v>352.3169967977481</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>417.0520770886785</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K2" t="n">
-        <v>417.0520770886785</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L2" t="n">
-        <v>1090.853728201993</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M2" t="n">
-        <v>1764.655379315307</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="N2" t="n">
-        <v>1931.072927593931</v>
+        <v>2293.657737486027</v>
       </c>
       <c r="O2" t="n">
-        <v>2604.874578707245</v>
+        <v>3138.802387636839</v>
       </c>
       <c r="P2" t="n">
-        <v>2604.874578707245</v>
+        <v>3138.802387636839</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T2" t="n">
-        <v>2397.138048506922</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U2" t="n">
-        <v>2138.783139103334</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V2" t="n">
-        <v>1781.293724229584</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W2" t="n">
-        <v>1384.902374529931</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="X2" t="n">
-        <v>1384.902374529931</v>
+        <v>3335.482176336947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1181.780241018899</v>
+        <v>2930.144906291837</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M3" t="n">
-        <v>54.44861827178296</v>
+        <v>101.3693627944556</v>
       </c>
       <c r="N3" t="n">
-        <v>643.169810791496</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="O3" t="n">
-        <v>643.169810791496</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P3" t="n">
-        <v>1316.97146190481</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q3" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>977.0757904300571</v>
+        <v>2397.887393992406</v>
       </c>
       <c r="C4" t="n">
-        <v>805.103227308973</v>
+        <v>2225.914830871322</v>
       </c>
       <c r="D4" t="n">
-        <v>641.7864544357437</v>
+        <v>2062.598057998093</v>
       </c>
       <c r="E4" t="n">
-        <v>641.7864544357437</v>
+        <v>1896.389852150947</v>
       </c>
       <c r="F4" t="n">
-        <v>641.7864544357437</v>
+        <v>1724.528077925507</v>
       </c>
       <c r="G4" t="n">
-        <v>641.7864544357437</v>
+        <v>1558.27110821974</v>
       </c>
       <c r="H4" t="n">
-        <v>641.7864544357437</v>
+        <v>1414.474839727894</v>
       </c>
       <c r="I4" t="n">
-        <v>542.0178861760197</v>
+        <v>1414.474839727894</v>
       </c>
       <c r="J4" t="n">
-        <v>599.5092144001777</v>
+        <v>1471.966167952052</v>
       </c>
       <c r="K4" t="n">
-        <v>826.0368156060149</v>
+        <v>1698.493769157889</v>
       </c>
       <c r="L4" t="n">
-        <v>1180.726136900436</v>
+        <v>2053.18309045231</v>
       </c>
       <c r="M4" t="n">
-        <v>1571.911931870686</v>
+        <v>2444.368885422561</v>
       </c>
       <c r="N4" t="n">
-        <v>1949.403442746722</v>
+        <v>2821.860396298596</v>
       </c>
       <c r="O4" t="n">
-        <v>2304.831571426485</v>
+        <v>3177.288524978359</v>
       </c>
       <c r="P4" t="n">
-        <v>2595.430783348386</v>
+        <v>3467.88773690026</v>
       </c>
       <c r="Q4" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R4" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S4" t="n">
-        <v>2716.236091499829</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T4" t="n">
-        <v>2472.896743725729</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U4" t="n">
-        <v>2192.712295226033</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V4" t="n">
-        <v>1911.000827834062</v>
+        <v>3331.812431396412</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.148424006575</v>
+        <v>3056.960027568925</v>
       </c>
       <c r="X4" t="n">
-        <v>1393.584527452381</v>
+        <v>2814.39613101473</v>
       </c>
       <c r="Y4" t="n">
-        <v>1167.241759142123</v>
+        <v>2588.053362704472</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2457.950531672741</v>
+        <v>1752.407110407214</v>
       </c>
       <c r="C5" t="n">
-        <v>2031.049801686042</v>
+        <v>1325.506380420514</v>
       </c>
       <c r="D5" t="n">
-        <v>1607.757180871042</v>
+        <v>902.2137596055143</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.780241018899</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="F5" t="n">
-        <v>756.6560592082994</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G5" t="n">
-        <v>352.3169967977481</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>434.5012161597159</v>
       </c>
       <c r="K5" t="n">
-        <v>244.9404807450223</v>
+        <v>434.5012161597159</v>
       </c>
       <c r="L5" t="n">
-        <v>918.7421318583365</v>
+        <v>434.5012161597159</v>
       </c>
       <c r="M5" t="n">
-        <v>918.7421318583365</v>
+        <v>1324.235963277119</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.543782971651</v>
+        <v>2213.970710394521</v>
       </c>
       <c r="O5" t="n">
-        <v>2266.345434084965</v>
+        <v>3059.115360545333</v>
       </c>
       <c r="P5" t="n">
-        <v>2266.345434084965</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="T5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="U5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="V5" t="n">
-        <v>2722.430913589148</v>
+        <v>3385.704093275759</v>
       </c>
       <c r="W5" t="n">
-        <v>2722.430913589148</v>
+        <v>2989.312743576106</v>
       </c>
       <c r="X5" t="n">
-        <v>2722.430913589148</v>
+        <v>2577.592744743853</v>
       </c>
       <c r="Y5" t="n">
-        <v>2722.430913589148</v>
+        <v>2172.255474698744</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I6" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J6" t="n">
-        <v>333.5927505132859</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K6" t="n">
-        <v>725.1891208761992</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="L6" t="n">
-        <v>1398.990771989513</v>
+        <v>1180.394054705318</v>
       </c>
       <c r="M6" t="n">
-        <v>1398.990771989513</v>
+        <v>1180.394054705318</v>
       </c>
       <c r="N6" t="n">
-        <v>1398.990771989513</v>
+        <v>1180.394054705318</v>
       </c>
       <c r="O6" t="n">
-        <v>1398.990771989513</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="P6" t="n">
-        <v>1398.990771989513</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>739.040692389239</v>
+        <v>343.015436205311</v>
       </c>
       <c r="C7" t="n">
-        <v>567.068129268155</v>
+        <v>171.042873084227</v>
       </c>
       <c r="D7" t="n">
-        <v>403.7513563949257</v>
+        <v>171.042873084227</v>
       </c>
       <c r="E7" t="n">
-        <v>237.5431505477792</v>
+        <v>171.042873084227</v>
       </c>
       <c r="F7" t="n">
-        <v>220.7055879775508</v>
+        <v>171.042873084227</v>
       </c>
       <c r="G7" t="n">
-        <v>54.44861827178296</v>
+        <v>171.042873084227</v>
       </c>
       <c r="H7" t="n">
-        <v>54.44861827178296</v>
+        <v>171.042873084227</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2234.861645684911</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T7" t="n">
-        <v>2234.861645684911</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U7" t="n">
-        <v>1954.677197185216</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.965729793244</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W7" t="n">
-        <v>1398.113325965757</v>
+        <v>1002.08806978183</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.549429411563</v>
+        <v>759.5241732276346</v>
       </c>
       <c r="Y7" t="n">
-        <v>929.2066611013047</v>
+        <v>533.1814049173767</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2397.138048506922</v>
+        <v>1624.298549081037</v>
       </c>
       <c r="C8" t="n">
-        <v>2031.049801686042</v>
+        <v>1197.397819094337</v>
       </c>
       <c r="D8" t="n">
-        <v>1607.757180871042</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.780241018899</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="F8" t="n">
-        <v>756.6560592082994</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G8" t="n">
-        <v>352.3169967977481</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K8" t="n">
-        <v>54.44861827178296</v>
+        <v>80.53897563800069</v>
       </c>
       <c r="L8" t="n">
-        <v>701.0259602492056</v>
+        <v>970.2737227554035</v>
       </c>
       <c r="M8" t="n">
-        <v>1374.82761136252</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N8" t="n">
-        <v>2048.629262475834</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="P8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S8" t="n">
-        <v>2618.063619462288</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T8" t="n">
-        <v>2397.138048506922</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U8" t="n">
-        <v>2397.138048506922</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="V8" t="n">
-        <v>2397.138048506922</v>
+        <v>3257.595531949582</v>
       </c>
       <c r="W8" t="n">
-        <v>2397.138048506922</v>
+        <v>2861.204182249929</v>
       </c>
       <c r="X8" t="n">
-        <v>2397.138048506922</v>
+        <v>2449.484183417676</v>
       </c>
       <c r="Y8" t="n">
-        <v>2397.138048506922</v>
+        <v>2044.146913372567</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K9" t="n">
-        <v>515.5329466256644</v>
+        <v>101.1158936885247</v>
       </c>
       <c r="L9" t="n">
-        <v>515.5329466256644</v>
+        <v>101.1158936885247</v>
       </c>
       <c r="M9" t="n">
-        <v>1189.334597738979</v>
+        <v>990.8506408059275</v>
       </c>
       <c r="N9" t="n">
-        <v>1189.334597738979</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>468.6936525335126</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C10" t="n">
-        <v>468.6936525335126</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D10" t="n">
-        <v>468.6936525335126</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E10" t="n">
-        <v>468.6936525335126</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F10" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G10" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H10" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2017.687984891219</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T10" t="n">
-        <v>1774.348637117119</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U10" t="n">
-        <v>1494.164188617424</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V10" t="n">
-        <v>1212.452721225452</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W10" t="n">
-        <v>937.6003173979655</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X10" t="n">
-        <v>695.0364208437705</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y10" t="n">
-        <v>468.6936525335126</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1734.105213294634</v>
+        <v>1604.101469398726</v>
       </c>
       <c r="C11" t="n">
-        <v>1307.204483307934</v>
+        <v>1177.200739412026</v>
       </c>
       <c r="D11" t="n">
-        <v>883.9118624929341</v>
+        <v>753.908118597026</v>
       </c>
       <c r="E11" t="n">
-        <v>883.9118624929341</v>
+        <v>327.9311787448836</v>
       </c>
       <c r="F11" t="n">
-        <v>458.7876806823343</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="G11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J11" t="n">
-        <v>417.0520770886785</v>
+        <v>434.5012161597159</v>
       </c>
       <c r="K11" t="n">
-        <v>417.0520770886785</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L11" t="n">
-        <v>417.0520770886785</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M11" t="n">
-        <v>1090.853728201993</v>
+        <v>2929.479018370021</v>
       </c>
       <c r="N11" t="n">
-        <v>1764.655379315307</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="O11" t="n">
-        <v>2438.457030428621</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="P11" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="Q11" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.430913589148</v>
+        <v>3237.398452267271</v>
       </c>
       <c r="W11" t="n">
-        <v>2722.430913589148</v>
+        <v>2841.007102567618</v>
       </c>
       <c r="X11" t="n">
-        <v>2559.290847631274</v>
+        <v>2429.287103735365</v>
       </c>
       <c r="Y11" t="n">
-        <v>2153.953577586164</v>
+        <v>2023.949833690256</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="L12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="M12" t="n">
-        <v>728.2502693850971</v>
+        <v>961.6325044602232</v>
       </c>
       <c r="N12" t="n">
-        <v>1402.051920498411</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>468.6936525335126</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C13" t="n">
-        <v>468.6936525335126</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D13" t="n">
-        <v>468.6936525335126</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E13" t="n">
-        <v>468.6936525335126</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T13" t="n">
-        <v>1774.348637117119</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U13" t="n">
-        <v>1494.164188617424</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V13" t="n">
-        <v>1212.452721225452</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="W13" t="n">
-        <v>937.6003173979655</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="X13" t="n">
-        <v>695.0364208437705</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.6936525335126</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1959.604228670288</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C14" t="n">
-        <v>1532.703498683588</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D14" t="n">
-        <v>1532.703498683588</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E14" t="n">
-        <v>1106.726558831446</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F14" t="n">
-        <v>681.602377020846</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G14" t="n">
-        <v>352.3169967977481</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K14" t="n">
-        <v>54.44861827178296</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L14" t="n">
-        <v>701.0259602492056</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M14" t="n">
-        <v>1374.82761136252</v>
+        <v>2566.875559553125</v>
       </c>
       <c r="N14" t="n">
-        <v>2048.629262475834</v>
+        <v>3456.610306670527</v>
       </c>
       <c r="O14" t="n">
-        <v>2048.629262475834</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="P14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="V14" t="n">
-        <v>2364.941498715398</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="W14" t="n">
-        <v>2364.941498715398</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X14" t="n">
-        <v>2364.941498715398</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y14" t="n">
-        <v>1959.604228670288</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J15" t="n">
-        <v>326.146107551374</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K15" t="n">
-        <v>326.146107551374</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L15" t="n">
-        <v>433.5136365409612</v>
+        <v>1499.181491994066</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.315287654275</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.315287654275</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O15" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P15" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q15" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>468.6936525335126</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C16" t="n">
-        <v>468.6936525335126</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D16" t="n">
-        <v>468.6936525335126</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E16" t="n">
-        <v>468.6936525335126</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T16" t="n">
-        <v>1774.348637117119</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U16" t="n">
-        <v>1494.164188617424</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V16" t="n">
-        <v>1212.452721225452</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W16" t="n">
-        <v>937.6003173979655</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X16" t="n">
-        <v>695.0364208437705</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y16" t="n">
-        <v>468.6936525335126</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5519,46 +5521,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L17" t="n">
-        <v>1007.532766690843</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109901</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5595,10 +5597,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
         <v>821.6753975134684</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1093.996490675759</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5701,22 +5703,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1785.357631525569</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1785.357631525569</v>
+        <v>1441.787072525839</v>
       </c>
       <c r="W19" t="n">
-        <v>1510.505227698082</v>
+        <v>1166.934668698352</v>
       </c>
       <c r="X19" t="n">
-        <v>1510.505227698082</v>
+        <v>1166.934668698352</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.162459387824</v>
+        <v>940.5919003880938</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5743,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,7 +5752,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5762,19 +5764,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
         <v>5010.768376164567</v>
@@ -5792,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5829,25 +5831,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N21" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4011.075585406556</v>
+        <v>3244.72711721729</v>
       </c>
       <c r="C22" t="n">
-        <v>3839.103022285472</v>
+        <v>3244.72711721729</v>
       </c>
       <c r="D22" t="n">
-        <v>3675.786249412243</v>
+        <v>3244.72711721729</v>
       </c>
       <c r="E22" t="n">
-        <v>3509.578043565097</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="F22" t="n">
-        <v>3337.716269339657</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="G22" t="n">
-        <v>3171.459299633889</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H22" t="n">
-        <v>3027.663031142044</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P22" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S22" t="n">
-        <v>4945.000622810562</v>
+        <v>4945.000622810561</v>
       </c>
       <c r="T22" t="n">
-        <v>4945.000622810562</v>
+        <v>4701.661275036461</v>
       </c>
       <c r="U22" t="n">
-        <v>4945.000622810562</v>
+        <v>4421.476826536766</v>
       </c>
       <c r="V22" t="n">
-        <v>4945.000622810562</v>
+        <v>4139.765359144794</v>
       </c>
       <c r="W22" t="n">
-        <v>4670.148218983075</v>
+        <v>3864.912955317307</v>
       </c>
       <c r="X22" t="n">
-        <v>4427.58432242888</v>
+        <v>3622.349058763113</v>
       </c>
       <c r="Y22" t="n">
-        <v>4201.241554118622</v>
+        <v>3434.893085929355</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6069,19 +6071,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>692.7876399741681</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>919.4582979645735</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="C25" t="n">
-        <v>747.4857348434895</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D25" t="n">
-        <v>584.1689619702602</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E25" t="n">
-        <v>417.9607561231137</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F25" t="n">
-        <v>246.0989818976742</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.376393044857</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U25" t="n">
-        <v>1759.191944545161</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.48047715319</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W25" t="n">
-        <v>1477.48047715319</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="X25" t="n">
-        <v>1335.967034986897</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="Y25" t="n">
-        <v>1109.624266676639</v>
+        <v>3845.931202281451</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6227,34 +6229,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1581.174581076928</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M26" t="n">
         <v>2585.460682495986</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982687</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6312,16 +6314,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3375.975369221655</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="C28" t="n">
-        <v>3204.002806100571</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D28" t="n">
-        <v>3040.686033227342</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E28" t="n">
-        <v>2934.722642878299</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F28" t="n">
-        <v>2934.722642878299</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P28" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S28" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T28" t="n">
-        <v>4871.796322517327</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="U28" t="n">
-        <v>4591.611874017632</v>
+        <v>4834.951221791731</v>
       </c>
       <c r="V28" t="n">
-        <v>4309.90040662566</v>
+        <v>4834.951221791731</v>
       </c>
       <c r="W28" t="n">
-        <v>4035.048002798173</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X28" t="n">
-        <v>3792.484106243979</v>
+        <v>4434.412502424859</v>
       </c>
       <c r="Y28" t="n">
-        <v>3566.14133793372</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6479,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6540,22 +6542,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.79262694784</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3158.801708427964</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>2986.82914530688</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>2934.722642878299</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>2934.722642878299</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878299</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.43821322394</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>4092.726745831969</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>3817.874342004482</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>3575.310445450287</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>3348.967677140029</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6701,34 +6703,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>3578.14552899051</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>3977.12982223068</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>3977.12982223068</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>5033.116360206724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>5033.116360206724</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O33" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3619.314716995755</v>
+        <v>3158.801708427963</v>
       </c>
       <c r="C34" t="n">
-        <v>3447.342153874671</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="D34" t="n">
-        <v>3284.025381001441</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="E34" t="n">
-        <v>3117.817175154295</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="F34" t="n">
-        <v>2945.955400928855</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P34" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T34" t="n">
-        <v>5115.135670291427</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U34" t="n">
-        <v>4834.951221791732</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V34" t="n">
-        <v>4553.23975439976</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W34" t="n">
-        <v>4278.387350572273</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X34" t="n">
-        <v>4035.823454018078</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y34" t="n">
-        <v>3809.48068570782</v>
+        <v>3348.967677140028</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6953,19 +6955,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7023,13 +7025,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3845.931202281452</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.43821322394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831969</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W37" t="n">
-        <v>3845.931202281452</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>3845.931202281452</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>3845.931202281452</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,19 +7162,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7181,28 +7183,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7254,16 +7256,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N39" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O39" t="n">
         <v>730.647150085061</v>
@@ -7309,16 +7311,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
         <v>345.8675501573982</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7366,7 +7368,7 @@
         <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.408873334071</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W40" t="n">
         <v>1844.556469506584</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>756.6560592082994</v>
+        <v>1530.158259084881</v>
       </c>
       <c r="C41" t="n">
-        <v>756.6560592082994</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="D41" t="n">
-        <v>756.6560592082994</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="E41" t="n">
-        <v>756.6560592082994</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="F41" t="n">
-        <v>756.6560592082994</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G41" t="n">
-        <v>352.3169967977481</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>434.5012161597159</v>
       </c>
       <c r="K41" t="n">
-        <v>54.44861827178296</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>728.2502693850971</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M41" t="n">
-        <v>1402.051920498411</v>
+        <v>1286.36665548672</v>
       </c>
       <c r="N41" t="n">
-        <v>2075.853571611725</v>
+        <v>2176.101402604123</v>
       </c>
       <c r="O41" t="n">
-        <v>2722.430913589148</v>
+        <v>3021.246052754935</v>
       </c>
       <c r="P41" t="n">
-        <v>2722.430913589148</v>
+        <v>3021.246052754935</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="T41" t="n">
-        <v>2585.949002062654</v>
+        <v>3373.962296185654</v>
       </c>
       <c r="U41" t="n">
-        <v>2327.594092659066</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="V41" t="n">
-        <v>1970.104677785315</v>
+        <v>2758.117971908317</v>
       </c>
       <c r="W41" t="n">
-        <v>1573.713328085662</v>
+        <v>2361.726622208664</v>
       </c>
       <c r="X41" t="n">
-        <v>1161.993329253409</v>
+        <v>1950.006623376411</v>
       </c>
       <c r="Y41" t="n">
-        <v>756.6560592082994</v>
+        <v>1950.006623376411</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I42" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J42" t="n">
-        <v>333.5927505132859</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K42" t="n">
-        <v>333.5927505132859</v>
+        <v>72.03252263831814</v>
       </c>
       <c r="L42" t="n">
-        <v>433.5136365409612</v>
+        <v>908.8313307212243</v>
       </c>
       <c r="M42" t="n">
-        <v>433.5136365409612</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.315287654275</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="O42" t="n">
-        <v>1781.11693876759</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="P42" t="n">
-        <v>1781.11693876759</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q42" t="n">
-        <v>1781.11693876759</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>894.0649040444501</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="C43" t="n">
-        <v>722.0923409233661</v>
+        <v>235.2145302160497</v>
       </c>
       <c r="D43" t="n">
-        <v>558.7755680501368</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="E43" t="n">
-        <v>392.5673622029904</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="F43" t="n">
-        <v>220.7055879775508</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="G43" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T43" t="n">
-        <v>2234.861645684911</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U43" t="n">
-        <v>2109.701408840427</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V43" t="n">
-        <v>1827.989941448456</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W43" t="n">
-        <v>1553.137537620968</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X43" t="n">
-        <v>1310.573641066774</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.230872756516</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1369.573725397331</v>
+        <v>1377.943109786662</v>
       </c>
       <c r="C44" t="n">
-        <v>1369.573725397331</v>
+        <v>1232.294690350865</v>
       </c>
       <c r="D44" t="n">
-        <v>1369.573725397331</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="E44" t="n">
-        <v>1216.677112275428</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="F44" t="n">
-        <v>791.5529304648283</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G44" t="n">
-        <v>387.2138680542769</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H44" t="n">
-        <v>89.34548952831176</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J44" t="n">
-        <v>417.0520770886785</v>
+        <v>434.5012161597159</v>
       </c>
       <c r="K44" t="n">
-        <v>1090.853728201993</v>
+        <v>434.5012161597159</v>
       </c>
       <c r="L44" t="n">
-        <v>1474.987448089748</v>
+        <v>434.5012161597159</v>
       </c>
       <c r="M44" t="n">
-        <v>1474.987448089748</v>
+        <v>578.0873763287925</v>
       </c>
       <c r="N44" t="n">
-        <v>1474.987448089748</v>
+        <v>1467.822123446195</v>
       </c>
       <c r="O44" t="n">
-        <v>1474.987448089748</v>
+        <v>2312.966773597007</v>
       </c>
       <c r="P44" t="n">
-        <v>2148.789099203062</v>
+        <v>3021.246052754935</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S44" t="n">
-        <v>2618.063619462288</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T44" t="n">
-        <v>2397.138048506922</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U44" t="n">
-        <v>2138.783139103334</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V44" t="n">
-        <v>1781.293724229584</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="W44" t="n">
-        <v>1781.293724229584</v>
+        <v>2614.848742955554</v>
       </c>
       <c r="X44" t="n">
-        <v>1369.573725397331</v>
+        <v>2203.128744123302</v>
       </c>
       <c r="Y44" t="n">
-        <v>1369.573725397331</v>
+        <v>1797.791474078192</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J45" t="n">
-        <v>326.146107551374</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K45" t="n">
-        <v>326.146107551374</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L45" t="n">
-        <v>326.146107551374</v>
+        <v>662.38268391116</v>
       </c>
       <c r="M45" t="n">
-        <v>725.1891208761992</v>
+        <v>662.38268391116</v>
       </c>
       <c r="N45" t="n">
-        <v>1398.990771989513</v>
+        <v>662.38268391116</v>
       </c>
       <c r="O45" t="n">
-        <v>1398.990771989513</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P45" t="n">
-        <v>1398.990771989513</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>799.5597607234338</v>
+        <v>623.1998847050068</v>
       </c>
       <c r="C46" t="n">
-        <v>627.5871976023498</v>
+        <v>451.2273215839227</v>
       </c>
       <c r="D46" t="n">
-        <v>464.2704247291205</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="E46" t="n">
-        <v>464.2704247291205</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>238.1547270485883</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2017.687984891219</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T46" t="n">
-        <v>1777.964413637424</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U46" t="n">
-        <v>1497.779965137729</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="V46" t="n">
-        <v>1216.068497745757</v>
+        <v>1557.124922109012</v>
       </c>
       <c r="W46" t="n">
-        <v>1216.068497745757</v>
+        <v>1282.272518281525</v>
       </c>
       <c r="X46" t="n">
-        <v>1216.068497745757</v>
+        <v>1039.70862172733</v>
       </c>
       <c r="Y46" t="n">
-        <v>989.7257294354995</v>
+        <v>813.3658534170725</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178784</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>205.378156449218</v>
+        <v>293.7578715550608</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8064,22 +8066,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>52.86607894832307</v>
       </c>
       <c r="N3" t="n">
-        <v>616.0108994455751</v>
+        <v>920.0649949987971</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P3" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>228.1806234950512</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846871</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197013</v>
       </c>
       <c r="O5" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>118.0673083673067</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>417.9511230888014</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>703.1228151115166</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8307,16 +8309,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>647.5880747053632</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,19 +8455,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>44.49310412327426</v>
       </c>
       <c r="L8" t="n">
-        <v>691.4204686724437</v>
+        <v>937.0340092178782</v>
       </c>
       <c r="M8" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846871</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197013</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8532,19 +8534,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>488.1409796453348</v>
+        <v>51.91250286939825</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975833</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>920.0649949987969</v>
       </c>
       <c r="O9" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8690,28 +8692,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178782</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846871</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>709.4097731081839</v>
       </c>
       <c r="O11" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>205.6738954250035</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,13 +8777,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975833</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>920.0649949987969</v>
       </c>
       <c r="O12" t="n">
-        <v>488.9136355342238</v>
+        <v>52.685158758287</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8927,22 +8929,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>691.4204686724437</v>
+        <v>937.0340092178782</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846871</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197013</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>177.0652628615735</v>
       </c>
       <c r="P14" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9003,22 +9005,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>130.9671361986611</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>703.704508909615</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9169,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9176,7 +9178,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>866.4310157363761</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9243,13 +9245,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>153.2864345924293</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
         <v>1121.661155963915</v>
@@ -9410,7 +9412,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>924.1790155406098</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9477,28 +9479,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9644,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,22 +9719,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>530.2476341400729</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9875,10 +9877,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>809.386345155451</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9960,7 +9962,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
         <v>1121.661155963915</v>
@@ -9969,10 +9971,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>279.576101048122</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10188,25 +10190,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>255.148922768857</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10349,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10425,22 +10427,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>425.4136714496664</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10449,7 +10451,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10671,16 +10673,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N36" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>26.37892716579976</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10829,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10911,10 +10913,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0343783945846</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P39" t="n">
         <v>745.2028786174529</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>175.1657390120633</v>
       </c>
       <c r="N41" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197013</v>
       </c>
       <c r="O41" t="n">
-        <v>690.4993855958451</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,25 +11135,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>22.53536039444214</v>
       </c>
       <c r="L42" t="n">
-        <v>123.4452746209723</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975833</v>
       </c>
       <c r="N42" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11297,22 +11299,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>426.325900905103</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>182.4677883227415</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197013</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11373,28 +11375,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>426.1705313454848</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>530.2476341400729</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22544,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22565,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>150.7911649478958</v>
       </c>
       <c r="Y2" t="n">
-        <v>200.1929851687376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,19 +22713,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,16 +22755,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>162.300823137631</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>18.44967133088716</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.8143025513721</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22793,13 +22795,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22841,16 +22843,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>146.8225845984036</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22945,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>153.473969538659</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0.6172179931342754</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22990,10 +22992,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23018,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>60.2043583341615</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23072,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>123.3187300710797</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23264,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>167.3998528044513</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23315,13 +23317,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>246.0941335456345</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>59.37454630891071</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>74.30314536557893</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23552,13 +23554,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>213.7810038658843</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>90.57247180176378</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>179.6654536046773</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>6.759898196019435</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>38.49792752173576</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>27.77629167419997</v>
       </c>
       <c r="X25" t="n">
-        <v>100.039949844023</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>59.64236734312237</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,16 +24654,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>115.7088052046616</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24856,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>47.1854451728326</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.18544517283162</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>153.4739695386591</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W37" t="n">
-        <v>27.77629167419997</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25606,10 +25608,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>117.2205539080143</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>95.01213248183814</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25637,7 +25639,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>83.59922283458363</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25786,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>110.098167740203</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>278.4397874453943</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>270.3495234629372</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>120.8848930377011</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>3.579618755101791</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481161.2162186602</v>
+        <v>567102.4130556273</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481161.2162186604</v>
+        <v>567102.4130556273</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481161.2162186604</v>
+        <v>567102.4130556271</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481161.2162186602</v>
+        <v>567102.4130556273</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481161.2162186604</v>
+        <v>567102.4130556273</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>716854.1173197932</v>
+        <v>716854.1173197931</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>716854.1173197931</v>
+        <v>716854.1173197932</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>716854.1173197932</v>
+        <v>716854.1173197931</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>716854.1173197932</v>
+        <v>716854.1173197931</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481161.2162186602</v>
+        <v>567102.4130556273</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481161.2162186602</v>
+        <v>567102.4130556271</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188623.3958016121</v>
+        <v>222312.413707786</v>
       </c>
       <c r="C2" t="n">
-        <v>188623.3958016122</v>
+        <v>222312.413707786</v>
       </c>
       <c r="D2" t="n">
-        <v>188623.3958016122</v>
+        <v>222312.4137077861</v>
       </c>
       <c r="E2" t="n">
-        <v>188623.3958016122</v>
+        <v>222312.4137077862</v>
       </c>
       <c r="F2" t="n">
-        <v>188623.3958016123</v>
+        <v>222312.4137077862</v>
       </c>
       <c r="G2" t="n">
         <v>281015.2015687237</v>
       </c>
       <c r="H2" t="n">
-        <v>281015.2015687235</v>
+        <v>281015.2015687238</v>
       </c>
       <c r="I2" t="n">
-        <v>281015.2015687235</v>
+        <v>281015.2015687237</v>
       </c>
       <c r="J2" t="n">
-        <v>281015.2015687235</v>
+        <v>281015.2015687236</v>
       </c>
       <c r="K2" t="n">
         <v>281015.2015687237</v>
       </c>
       <c r="L2" t="n">
-        <v>281015.2015687235</v>
+        <v>281015.2015687237</v>
       </c>
       <c r="M2" t="n">
+        <v>281015.2015687237</v>
+      </c>
+      <c r="N2" t="n">
         <v>281015.2015687236</v>
       </c>
-      <c r="N2" t="n">
-        <v>281015.2015687235</v>
-      </c>
       <c r="O2" t="n">
-        <v>188623.3958016121</v>
+        <v>222312.413707786</v>
       </c>
       <c r="P2" t="n">
-        <v>188623.3958016121</v>
+        <v>222312.4137077861</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>301182.4016749752</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>104169.2797816197</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>235145.2102775614</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="C4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939597</v>
       </c>
       <c r="D4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="E4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="F4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939597</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="J4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="L4" t="n">
         <v>15116.17365792743</v>
@@ -26451,13 +26453,13 @@
         <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="O4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="P4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939596</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124592.4416221987</v>
+        <v>-179081.6385171286</v>
       </c>
       <c r="C6" t="n">
-        <v>103494.8621414853</v>
+        <v>122100.7631578466</v>
       </c>
       <c r="D6" t="n">
-        <v>103494.8621414853</v>
+        <v>122100.7631578466</v>
       </c>
       <c r="E6" t="n">
-        <v>137122.4621414853</v>
+        <v>155728.3631578467</v>
       </c>
       <c r="F6" t="n">
-        <v>137122.4621414854</v>
+        <v>155728.3631578467</v>
       </c>
       <c r="G6" t="n">
-        <v>24197.84491218055</v>
+        <v>83979.68594074692</v>
       </c>
       <c r="H6" t="n">
-        <v>188148.9657223664</v>
+        <v>188148.9657223667</v>
       </c>
       <c r="I6" t="n">
-        <v>188148.9657223664</v>
+        <v>188148.9657223666</v>
       </c>
       <c r="J6" t="n">
-        <v>10072.03723358664</v>
+        <v>-46996.2445551949</v>
       </c>
       <c r="K6" t="n">
+        <v>188148.9657223666</v>
+      </c>
+      <c r="L6" t="n">
+        <v>188148.9657223666</v>
+      </c>
+      <c r="M6" t="n">
+        <v>188148.9657223666</v>
+      </c>
+      <c r="N6" t="n">
         <v>188148.9657223665</v>
       </c>
-      <c r="L6" t="n">
-        <v>188148.9657223664</v>
-      </c>
-      <c r="M6" t="n">
-        <v>188148.9657223665</v>
-      </c>
-      <c r="N6" t="n">
-        <v>188148.9657223664</v>
-      </c>
       <c r="O6" t="n">
-        <v>137122.4621414852</v>
+        <v>155728.3631578465</v>
       </c>
       <c r="P6" t="n">
-        <v>137122.4621414852</v>
+        <v>155728.3631578466</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876013</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876013</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>168.098533614772</v>
+        <v>256.4782487206148</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34784,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>29.76929843599509</v>
       </c>
       <c r="N3" t="n">
-        <v>594.6678712320335</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>192.4160227002418</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O5" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>80.49194655707541</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35009,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>395.551889255468</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>680.607728397287</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>624.416184983141</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>8.728503328464916</v>
       </c>
       <c r="L8" t="n">
-        <v>653.1084262398208</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="M8" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>465.7417458120015</v>
+        <v>29.51326903606492</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>672.1301502737379</v>
       </c>
       <c r="O11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>168.0985336147722</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O12" t="n">
-        <v>465.7417458120016</v>
+        <v>29.51326903606477</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>653.1084262398208</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>139.6743035055494</v>
       </c>
       <c r="P14" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>108.4520494844315</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>680.607728397287</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35896,7 +35898,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>829.040056380352</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35963,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>130.1896540801013</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
         <v>1100.318127750374</v>
@@ -36130,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>886.8993927061638</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36364,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>771.0743027228281</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36680,7 +36682,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
         <v>1100.318127750374</v>
@@ -36689,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>257.8052598432934</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.6338360546274</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37145,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>403.0144376163331</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N36" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>3.207037443577533</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37549,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,10 +37633,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P39" t="n">
         <v>723.4320374126243</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>137.7344761126315</v>
       </c>
       <c r="N41" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O41" t="n">
-        <v>653.1084262398209</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.136126561108803</v>
       </c>
       <c r="L42" t="n">
-        <v>100.9301879067428</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>388.01385847248</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>145.0365254233097</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>403.0737508331568</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>859872.6258366058</v>
+        <v>857954.9081780432</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12157779.51246666</v>
+        <v>12157779.51246665</v>
       </c>
     </row>
     <row r="8">
@@ -664,13 +664,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>256.8116338960344</v>
+        <v>194.3081852803726</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -822,19 +822,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686406</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>260.4446813871642</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -904,19 +904,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>15.98252206193677</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>207.0919361266095</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.15366458399251</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1138,13 +1138,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -1153,7 +1153,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>164.9449084733621</v>
       </c>
       <c r="V8" t="n">
-        <v>230.5957906539333</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399249</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1372,22 +1372,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>253.4730871880425</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>276.6533685495567</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1587,16 +1587,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>164.7047943182447</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>137.2259356068045</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>178.6464323367722</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -2004,22 +2004,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2061,13 +2061,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>99.22889911337413</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2241,22 +2241,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>185.5814131054196</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2538,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>244.3275881150121</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>156.3950745845505</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>123.0673923170415</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3742,13 +3742,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>327.6195902049947</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3757,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>178.6464323367727</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3900,16 +3900,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>60.15466974967015</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3979,25 +3979,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>144.1919352414386</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>193.8217949780461</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>40.79871210679592</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2510.296542000307</v>
+        <v>1235.902799522566</v>
       </c>
       <c r="C2" t="n">
-        <v>2083.395812013608</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="D2" t="n">
-        <v>1660.103191198608</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="E2" t="n">
-        <v>1234.126251346466</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="F2" t="n">
         <v>809.0020695358658</v>
@@ -4330,52 +4330,52 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>434.501216159716</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K2" t="n">
-        <v>1150.009524135215</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L2" t="n">
-        <v>2039.744271252618</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M2" t="n">
-        <v>2039.744271252618</v>
+        <v>578.0873763287929</v>
       </c>
       <c r="N2" t="n">
-        <v>2293.657737486027</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O2" t="n">
-        <v>3138.802387636839</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P2" t="n">
-        <v>3138.802387636839</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q2" t="n">
-        <v>3594.887867141022</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R2" t="n">
         <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T2" t="n">
-        <v>3594.887867141022</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U2" t="n">
-        <v>3594.887867141022</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V2" t="n">
-        <v>3594.887867141022</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W2" t="n">
-        <v>3594.887867141022</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X2" t="n">
-        <v>3335.482176336947</v>
+        <v>2061.088433859205</v>
       </c>
       <c r="Y2" t="n">
-        <v>2930.144906291837</v>
+        <v>1655.751163814096</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J3" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K3" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L3" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="M3" t="n">
-        <v>101.3693627944556</v>
+        <v>908.8313307212242</v>
       </c>
       <c r="N3" t="n">
-        <v>991.1041099118586</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="O3" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="P3" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q3" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R3" t="n">
         <v>1880.58538792333</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2397.887393992406</v>
+        <v>1855.727566071249</v>
       </c>
       <c r="C4" t="n">
-        <v>2225.914830871322</v>
+        <v>1683.755002950165</v>
       </c>
       <c r="D4" t="n">
-        <v>2062.598057998093</v>
+        <v>1683.755002950165</v>
       </c>
       <c r="E4" t="n">
-        <v>1896.389852150947</v>
+        <v>1586.336613953333</v>
       </c>
       <c r="F4" t="n">
-        <v>1724.528077925507</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="G4" t="n">
-        <v>1558.27110821974</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="H4" t="n">
-        <v>1414.474839727894</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="I4" t="n">
-        <v>1414.474839727894</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="J4" t="n">
-        <v>1471.966167952052</v>
+        <v>1471.966167952051</v>
       </c>
       <c r="K4" t="n">
         <v>1698.493769157889</v>
       </c>
       <c r="L4" t="n">
-        <v>2053.18309045231</v>
+        <v>2053.183090452309</v>
       </c>
       <c r="M4" t="n">
-        <v>2444.368885422561</v>
+        <v>2444.36888542256</v>
       </c>
       <c r="N4" t="n">
         <v>2821.860396298596</v>
@@ -4518,22 +4518,22 @@
         <v>3594.887867141022</v>
       </c>
       <c r="T4" t="n">
-        <v>3594.887867141022</v>
+        <v>3351.548519366921</v>
       </c>
       <c r="U4" t="n">
-        <v>3594.887867141022</v>
+        <v>3071.364070867226</v>
       </c>
       <c r="V4" t="n">
-        <v>3331.812431396412</v>
+        <v>2789.652603475255</v>
       </c>
       <c r="W4" t="n">
-        <v>3056.960027568925</v>
+        <v>2514.800199647768</v>
       </c>
       <c r="X4" t="n">
-        <v>2814.39613101473</v>
+        <v>2272.236303093573</v>
       </c>
       <c r="Y4" t="n">
-        <v>2588.053362704472</v>
+        <v>2045.893534783315</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1752.407110407214</v>
+        <v>1661.227630159809</v>
       </c>
       <c r="C5" t="n">
-        <v>1325.506380420514</v>
+        <v>1234.326900173109</v>
       </c>
       <c r="D5" t="n">
-        <v>902.2137596055143</v>
+        <v>811.0342793581094</v>
       </c>
       <c r="E5" t="n">
-        <v>476.2368197533718</v>
+        <v>811.0342793581094</v>
       </c>
       <c r="F5" t="n">
-        <v>476.2368197533718</v>
+        <v>385.9100975475096</v>
       </c>
       <c r="G5" t="n">
-        <v>71.89775734282043</v>
+        <v>385.9100975475096</v>
       </c>
       <c r="H5" t="n">
-        <v>71.89775734282043</v>
+        <v>88.04171902154445</v>
       </c>
       <c r="I5" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>434.5012161597159</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K5" t="n">
-        <v>434.5012161597159</v>
+        <v>651.0536142441048</v>
       </c>
       <c r="L5" t="n">
-        <v>434.5012161597159</v>
+        <v>651.0536142441048</v>
       </c>
       <c r="M5" t="n">
-        <v>1324.235963277119</v>
+        <v>1540.788361361508</v>
       </c>
       <c r="N5" t="n">
-        <v>2213.970710394521</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="O5" t="n">
-        <v>3059.115360545333</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P5" t="n">
         <v>3138.802387636838</v>
       </c>
       <c r="Q5" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R5" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>3594.887867141021</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T5" t="n">
-        <v>3594.887867141021</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U5" t="n">
-        <v>3594.887867141021</v>
+        <v>3232.165663610574</v>
       </c>
       <c r="V5" t="n">
-        <v>3385.704093275759</v>
+        <v>2874.676248736824</v>
       </c>
       <c r="W5" t="n">
-        <v>2989.312743576106</v>
+        <v>2478.284899037171</v>
       </c>
       <c r="X5" t="n">
-        <v>2577.592744743853</v>
+        <v>2066.564900204919</v>
       </c>
       <c r="Y5" t="n">
-        <v>2172.255474698744</v>
+        <v>1661.227630159809</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C6" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D6" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E6" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G6" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H6" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I6" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J6" t="n">
-        <v>343.5952466224115</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K6" t="n">
-        <v>343.5952466224115</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="L6" t="n">
-        <v>1180.394054705318</v>
+        <v>1187.84069766723</v>
       </c>
       <c r="M6" t="n">
-        <v>1180.394054705318</v>
+        <v>1187.84069766723</v>
       </c>
       <c r="N6" t="n">
-        <v>1180.394054705318</v>
+        <v>1187.84069766723</v>
       </c>
       <c r="O6" t="n">
-        <v>1798.566077838627</v>
+        <v>1187.84069766723</v>
       </c>
       <c r="P6" t="n">
-        <v>1798.566077838627</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q6" t="n">
-        <v>1798.566077838627</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R6" t="n">
         <v>1880.58538792333</v>
@@ -4688,10 +4688,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y6" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>343.015436205311</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C7" t="n">
-        <v>171.042873084227</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D7" t="n">
-        <v>171.042873084227</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E7" t="n">
-        <v>171.042873084227</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F7" t="n">
-        <v>171.042873084227</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G7" t="n">
-        <v>171.042873084227</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H7" t="n">
-        <v>171.042873084227</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I7" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J7" t="n">
         <v>129.3890855669785</v>
@@ -4752,25 +4752,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2082.175737275084</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T7" t="n">
-        <v>1838.836389500983</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U7" t="n">
-        <v>1558.651941001288</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V7" t="n">
-        <v>1276.940473609317</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W7" t="n">
-        <v>1002.08806978183</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X7" t="n">
-        <v>759.5241732276346</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.1814049173767</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="8">
@@ -4780,55 +4780,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.298549081037</v>
+        <v>2087.003921185308</v>
       </c>
       <c r="C8" t="n">
-        <v>1197.397819094337</v>
+        <v>1660.103191198608</v>
       </c>
       <c r="D8" t="n">
-        <v>774.1051982793369</v>
+        <v>1660.103191198608</v>
       </c>
       <c r="E8" t="n">
-        <v>774.1051982793369</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="F8" t="n">
-        <v>774.1051982793369</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G8" t="n">
-        <v>369.7661358687856</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H8" t="n">
-        <v>71.89775734282043</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I8" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>71.89775734282043</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K8" t="n">
-        <v>80.53897563800069</v>
+        <v>434.501216159716</v>
       </c>
       <c r="L8" t="n">
-        <v>970.2737227554035</v>
+        <v>695.6437112106956</v>
       </c>
       <c r="M8" t="n">
-        <v>1860.008469872806</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N8" t="n">
-        <v>2749.743216990209</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O8" t="n">
-        <v>3594.887867141021</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P8" t="n">
-        <v>3594.887867141021</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q8" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R8" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
         <v>3490.520573014162</v>
@@ -4837,19 +4837,19 @@
         <v>3490.520573014162</v>
       </c>
       <c r="U8" t="n">
-        <v>3490.520573014162</v>
+        <v>3323.9095543542</v>
       </c>
       <c r="V8" t="n">
-        <v>3257.595531949582</v>
+        <v>3323.9095543542</v>
       </c>
       <c r="W8" t="n">
-        <v>2861.204182249929</v>
+        <v>3323.9095543542</v>
       </c>
       <c r="X8" t="n">
-        <v>2449.484183417676</v>
+        <v>2912.189555521948</v>
       </c>
       <c r="Y8" t="n">
-        <v>2044.146913372567</v>
+        <v>2506.852285476838</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C9" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D9" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E9" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G9" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H9" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J9" t="n">
-        <v>71.89775734282043</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K9" t="n">
-        <v>101.1158936885247</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="L9" t="n">
-        <v>101.1158936885247</v>
+        <v>1770.878981273657</v>
       </c>
       <c r="M9" t="n">
-        <v>990.8506408059275</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N9" t="n">
         <v>1880.58538792333</v>
@@ -4925,10 +4925,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y9" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1155.078879867057</v>
+        <v>343.015436205311</v>
       </c>
       <c r="C10" t="n">
-        <v>983.1063167459732</v>
+        <v>171.042873084227</v>
       </c>
       <c r="D10" t="n">
-        <v>819.7895438727439</v>
+        <v>171.042873084227</v>
       </c>
       <c r="E10" t="n">
-        <v>653.5813380255975</v>
+        <v>171.042873084227</v>
       </c>
       <c r="F10" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G10" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H10" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I10" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J10" t="n">
         <v>129.3890855669785</v>
@@ -4989,25 +4989,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2252.310784755949</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T10" t="n">
-        <v>2252.310784755949</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U10" t="n">
-        <v>2252.310784755949</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V10" t="n">
-        <v>2089.003917271063</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W10" t="n">
-        <v>1814.151513443576</v>
+        <v>1002.08806978183</v>
       </c>
       <c r="X10" t="n">
-        <v>1571.587616889381</v>
+        <v>759.5241732276346</v>
       </c>
       <c r="Y10" t="n">
-        <v>1345.244848579123</v>
+        <v>533.1814049173767</v>
       </c>
     </row>
     <row r="11">
@@ -5020,28 +5020,28 @@
         <v>1604.101469398726</v>
       </c>
       <c r="C11" t="n">
-        <v>1177.200739412026</v>
+        <v>1604.101469398726</v>
       </c>
       <c r="D11" t="n">
-        <v>753.908118597026</v>
+        <v>1180.808848583726</v>
       </c>
       <c r="E11" t="n">
-        <v>327.9311787448836</v>
+        <v>1180.808848583726</v>
       </c>
       <c r="F11" t="n">
-        <v>71.89775734282043</v>
+        <v>755.6846667731261</v>
       </c>
       <c r="G11" t="n">
-        <v>71.89775734282043</v>
+        <v>351.3456043625747</v>
       </c>
       <c r="H11" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I11" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>434.5012161597159</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K11" t="n">
         <v>1150.009524135215</v>
@@ -5050,31 +5050,31 @@
         <v>2039.744271252618</v>
       </c>
       <c r="M11" t="n">
-        <v>2929.479018370021</v>
+        <v>2249.067640519435</v>
       </c>
       <c r="N11" t="n">
-        <v>3594.887867141021</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="O11" t="n">
-        <v>3594.887867141021</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="P11" t="n">
-        <v>3594.887867141021</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q11" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R11" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T11" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U11" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V11" t="n">
         <v>3237.398452267271</v>
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C12" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D12" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E12" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G12" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H12" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J12" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K12" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L12" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M12" t="n">
-        <v>961.6325044602232</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N12" t="n">
-        <v>1851.367251577626</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="O12" t="n">
-        <v>1880.58538792333</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="P12" t="n">
-        <v>1880.58538792333</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q12" t="n">
         <v>1880.58538792333</v>
@@ -5162,10 +5162,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y12" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1155.078879867057</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C13" t="n">
-        <v>983.1063167459732</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D13" t="n">
-        <v>819.7895438727439</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E13" t="n">
-        <v>653.5813380255975</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F13" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G13" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H13" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I13" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J13" t="n">
         <v>129.3890855669785</v>
@@ -5223,28 +5223,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.137123962257</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T13" t="n">
-        <v>1791.797776188157</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U13" t="n">
-        <v>1511.613327688461</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V13" t="n">
-        <v>1511.613327688461</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W13" t="n">
-        <v>1511.613327688461</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X13" t="n">
-        <v>1511.613327688461</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y13" t="n">
-        <v>1345.244848579123</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2177.531292217814</v>
+        <v>1765.594924286669</v>
       </c>
       <c r="C14" t="n">
-        <v>1750.630562231114</v>
+        <v>1338.694194299969</v>
       </c>
       <c r="D14" t="n">
-        <v>1327.337941416114</v>
+        <v>1338.694194299969</v>
       </c>
       <c r="E14" t="n">
-        <v>901.3610015639716</v>
+        <v>912.7172544478263</v>
       </c>
       <c r="F14" t="n">
-        <v>476.2368197533718</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G14" t="n">
-        <v>71.89775734282043</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H14" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I14" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K14" t="n">
         <v>787.4060653183195</v>
       </c>
       <c r="L14" t="n">
-        <v>1677.140812435722</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="M14" t="n">
-        <v>2566.875559553125</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N14" t="n">
-        <v>3456.610306670527</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O14" t="n">
-        <v>3594.887867141021</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P14" t="n">
-        <v>3594.887867141021</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q14" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R14" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T14" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U14" t="n">
-        <v>3594.887867141021</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="V14" t="n">
-        <v>3594.887867141021</v>
+        <v>2979.043542863684</v>
       </c>
       <c r="W14" t="n">
-        <v>3414.436925386706</v>
+        <v>2582.652193164031</v>
       </c>
       <c r="X14" t="n">
-        <v>3002.716926554453</v>
+        <v>2170.932194331778</v>
       </c>
       <c r="Y14" t="n">
-        <v>2597.379656509343</v>
+        <v>1765.594924286669</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C15" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D15" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E15" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G15" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H15" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J15" t="n">
-        <v>71.89775734282043</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K15" t="n">
-        <v>662.38268391116</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L15" t="n">
-        <v>1499.181491994066</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="M15" t="n">
-        <v>1880.58538792333</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="N15" t="n">
-        <v>1880.58538792333</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="O15" t="n">
-        <v>1880.58538792333</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="P15" t="n">
-        <v>1880.58538792333</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q15" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R15" t="n">
         <v>1880.58538792333</v>
@@ -5399,10 +5399,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y15" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1155.078879867057</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C16" t="n">
-        <v>983.1063167459732</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D16" t="n">
-        <v>819.7895438727439</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E16" t="n">
-        <v>653.5813380255975</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F16" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G16" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H16" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I16" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J16" t="n">
         <v>129.3890855669785</v>
@@ -5463,25 +5463,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2252.310784755949</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T16" t="n">
-        <v>2252.310784755949</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U16" t="n">
-        <v>2252.310784755949</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V16" t="n">
-        <v>2089.003917271063</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W16" t="n">
-        <v>1814.151513443576</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X16" t="n">
-        <v>1571.587616889381</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y16" t="n">
-        <v>1345.244848579123</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2036.213862444163</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>750.4259316760281</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>750.4259316760281</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>750.4259316760281</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1441.787072525839</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1166.934668698352</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.934668698352</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>940.5919003880938</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,7 +5752,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5764,19 +5764,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
         <v>5010.768376164567</v>
@@ -5794,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5828,25 +5828,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
         <v>1446.844867123559</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3244.72711721729</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>3244.72711721729</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>3244.72711721729</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>3078.518911370144</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4945.000622810561</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>4701.661275036461</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>4421.476826536766</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4139.765359144794</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>3864.912955317307</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>3622.349058763113</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>3434.893085929355</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,28 +6065,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3845.931202281451</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281451</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408221</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497734</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723634</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.438213223939</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>4092.726745831968</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>3845.931202281451</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>3845.931202281451</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>3845.931202281451</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6229,34 +6229,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>1581.174581076927</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M26" t="n">
-        <v>2585.460682495986</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982686</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.856391133499</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4017.903765402535</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3845.931202281451</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3682.614429408221</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>5115.135670291426</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>5115.135670291426</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4834.951221791731</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4834.951221791731</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>4676.976398979054</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>4434.412502424859</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3158.801708427963</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3034.491211138022</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3034.491211138022</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3034.491211138022</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004481</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.310445450286</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3348.967677140028</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>2988.069926596601</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1530.158259084881</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C41" t="n">
-        <v>1199.229380089937</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D41" t="n">
-        <v>1199.229380089937</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E41" t="n">
-        <v>1199.229380089937</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F41" t="n">
-        <v>774.1051982793369</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G41" t="n">
-        <v>369.7661358687856</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H41" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I41" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>434.5012161597159</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K41" t="n">
         <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>1150.009524135215</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M41" t="n">
-        <v>1286.36665548672</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="N41" t="n">
-        <v>2176.101402604123</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O41" t="n">
-        <v>3021.246052754935</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P41" t="n">
-        <v>3021.246052754935</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q41" t="n">
-        <v>3477.331532259118</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R41" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T41" t="n">
-        <v>3373.962296185654</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U41" t="n">
-        <v>3115.607386782067</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V41" t="n">
-        <v>2758.117971908317</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W41" t="n">
-        <v>2361.726622208664</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X41" t="n">
-        <v>1950.006623376411</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y41" t="n">
-        <v>1950.006623376411</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C42" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D42" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E42" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G42" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H42" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J42" t="n">
-        <v>71.89775734282043</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K42" t="n">
-        <v>72.03252263831814</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L42" t="n">
-        <v>908.8313307212243</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="M42" t="n">
-        <v>1798.566077838627</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="N42" t="n">
-        <v>1798.566077838627</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="O42" t="n">
-        <v>1798.566077838627</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="P42" t="n">
-        <v>1798.566077838627</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q42" t="n">
-        <v>1798.566077838627</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R42" t="n">
         <v>1880.58538792333</v>
@@ -7532,10 +7532,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y42" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>295.9768228924842</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C43" t="n">
-        <v>235.2145302160497</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D43" t="n">
-        <v>71.89775734282043</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E43" t="n">
-        <v>71.89775734282043</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F43" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G43" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H43" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I43" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J43" t="n">
         <v>129.3890855669785</v>
@@ -7593,28 +7593,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S43" t="n">
-        <v>2035.137123962257</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T43" t="n">
-        <v>1791.797776188157</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U43" t="n">
-        <v>1511.613327688461</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V43" t="n">
-        <v>1229.90186029649</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W43" t="n">
-        <v>955.0494564690027</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X43" t="n">
-        <v>712.4855599148078</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y43" t="n">
-        <v>486.1427916045499</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1377.943109786662</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C44" t="n">
-        <v>1232.294690350865</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D44" t="n">
-        <v>809.0020695358658</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E44" t="n">
-        <v>809.0020695358658</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F44" t="n">
-        <v>809.0020695358658</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6630071253144</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H44" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I44" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>434.5012161597159</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K44" t="n">
-        <v>434.5012161597159</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L44" t="n">
-        <v>434.5012161597159</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M44" t="n">
-        <v>578.0873763287925</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="N44" t="n">
-        <v>1467.822123446195</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="O44" t="n">
-        <v>2312.966773597007</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P44" t="n">
-        <v>3021.246052754935</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q44" t="n">
-        <v>3477.331532259118</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R44" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T44" t="n">
-        <v>3269.595002058795</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U44" t="n">
-        <v>3011.240092655207</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V44" t="n">
-        <v>3011.240092655207</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W44" t="n">
-        <v>2614.848742955554</v>
+        <v>3198.496517441368</v>
       </c>
       <c r="X44" t="n">
-        <v>2203.128744123302</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y44" t="n">
-        <v>1797.791474078192</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C45" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D45" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E45" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G45" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H45" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J45" t="n">
-        <v>71.89775734282043</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K45" t="n">
-        <v>662.38268391116</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L45" t="n">
-        <v>662.38268391116</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="M45" t="n">
-        <v>662.38268391116</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="N45" t="n">
-        <v>662.38268391116</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="O45" t="n">
-        <v>1164.387670884832</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="P45" t="n">
-        <v>1880.58538792333</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q45" t="n">
         <v>1880.58538792333</v>
@@ -7769,10 +7769,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y45" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>623.1998847050068</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C46" t="n">
-        <v>451.2273215839227</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D46" t="n">
-        <v>410.0165012740279</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E46" t="n">
-        <v>410.0165012740279</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F46" t="n">
-        <v>238.1547270485883</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J46" t="n">
         <v>129.3890855669785</v>
@@ -7833,25 +7833,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2082.175737275084</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T46" t="n">
-        <v>1838.836389500983</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U46" t="n">
-        <v>1838.836389500983</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V46" t="n">
-        <v>1557.124922109012</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W46" t="n">
-        <v>1282.272518281525</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X46" t="n">
-        <v>1039.70862172733</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y46" t="n">
-        <v>813.3658534170725</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>937.0340092178784</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>548.733908339808</v>
       </c>
       <c r="N2" t="n">
-        <v>293.7578715550608</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O2" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
@@ -8066,13 +8066,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>52.86607894832307</v>
+        <v>860.9623667916127</v>
       </c>
       <c r="N3" t="n">
-        <v>920.0649949987971</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O3" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8081,7 +8081,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>254.5043968396465</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>936.1532296846871</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N5" t="n">
-        <v>936.0015896197013</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O5" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>118.0673083673067</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
@@ -8309,16 +8309,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>647.5880747053632</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>721.5129525746274</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49310412327426</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>937.0340092178782</v>
+        <v>302.0923404639155</v>
       </c>
       <c r="M8" t="n">
-        <v>936.1532296846871</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N8" t="n">
-        <v>936.0015896197013</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8531,19 +8531,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>51.91250286939825</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M9" t="n">
-        <v>921.8187472975833</v>
+        <v>133.9113326837148</v>
       </c>
       <c r="N9" t="n">
-        <v>920.0649949987969</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8695,13 +8695,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>937.0340092178782</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M11" t="n">
-        <v>936.1532296846871</v>
+        <v>248.8690096335907</v>
       </c>
       <c r="N11" t="n">
-        <v>709.4097731081839</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O11" t="n">
         <v>37.3909593560241</v>
@@ -8710,7 +8710,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8777,19 +8777,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>921.8187472975833</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N12" t="n">
-        <v>920.0649949987969</v>
+        <v>480.7444490219534</v>
       </c>
       <c r="O12" t="n">
-        <v>52.685158758287</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8932,22 +8932,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>937.0340092178782</v>
+        <v>844.3447626445209</v>
       </c>
       <c r="M14" t="n">
-        <v>936.1532296846871</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>936.0015896197013</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>177.0652628615735</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>408.3532410469382</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9023,13 +9023,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>866.4310157363761</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9239,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9412,7 +9412,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>924.1790155406089</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
@@ -9497,7 +9497,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>509.0028996591719</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,31 +9713,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9877,13 +9877,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>809.386345155451</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>1027.220259954781</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9895,10 +9895,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10363,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286663</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10439,19 +10439,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10597,19 +10597,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>370.4410136063929</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,13 +10828,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>924.3306556055946</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>618.848654609434</v>
@@ -10916,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>61.41381912716452</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M41" t="n">
-        <v>175.1657390120633</v>
+        <v>754.6019151596252</v>
       </c>
       <c r="N41" t="n">
-        <v>936.0015896197013</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11080,10 +11080,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.53536039444214</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>921.8187472975833</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>502.8820865988767</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M44" t="n">
-        <v>182.4677883227415</v>
+        <v>432.1573611078082</v>
       </c>
       <c r="N44" t="n">
-        <v>936.0015896197013</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
@@ -11390,13 +11390,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>530.2476341400729</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22552,13 +22552,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>150.7911649478958</v>
+        <v>213.2946135635576</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22710,19 +22710,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>68.10191868181091</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22758,13 +22758,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>18.44967133088716</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22792,19 +22792,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>18.56538048202673</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>146.8225845984036</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22953,7 +22953,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -22962,7 +22962,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6172179931342754</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23026,13 +23026,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,13 +23077,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>90.82645183618976</v>
       </c>
       <c r="V8" t="n">
-        <v>123.3187300710797</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>71.98949189919269</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>167.3998528044513</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>18.23632619114881</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>59.37454630891071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>283.6470043856892</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23551,13 +23551,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>213.7810038658843</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>179.6654536046773</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>38.49792752173576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>27.77629167419997</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24858,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>47.1854451728326</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.18544517283162</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25086,7 +25086,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>95.01213248183814</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25681,22 +25681,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>213.7810038658839</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>110.098167740203</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>278.4397874453943</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>213.7810038658841</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>120.8848930377011</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26073,13 +26073,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>567102.4130556271</v>
+        <v>567102.4130556274</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>567102.4130556273</v>
+        <v>567102.4130556274</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>716854.1173197932</v>
+        <v>716854.1173197931</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>716854.1173197932</v>
+        <v>716854.1173197931</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>567102.4130556271</v>
+        <v>567102.4130556273</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>222312.4137077861</v>
+      </c>
+      <c r="C2" t="n">
+        <v>222312.4137077861</v>
+      </c>
+      <c r="D2" t="n">
         <v>222312.413707786</v>
       </c>
-      <c r="C2" t="n">
-        <v>222312.413707786</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>222312.4137077861</v>
       </c>
-      <c r="E2" t="n">
-        <v>222312.4137077862</v>
-      </c>
       <c r="F2" t="n">
-        <v>222312.4137077862</v>
+        <v>222312.4137077861</v>
       </c>
       <c r="G2" t="n">
         <v>281015.2015687237</v>
       </c>
       <c r="H2" t="n">
-        <v>281015.2015687238</v>
+        <v>281015.2015687237</v>
       </c>
       <c r="I2" t="n">
         <v>281015.2015687237</v>
@@ -26349,13 +26349,13 @@
         <v>281015.2015687237</v>
       </c>
       <c r="N2" t="n">
-        <v>281015.2015687236</v>
+        <v>281015.2015687237</v>
       </c>
       <c r="O2" t="n">
+        <v>222312.4137077859</v>
+      </c>
+      <c r="P2" t="n">
         <v>222312.413707786</v>
-      </c>
-      <c r="P2" t="n">
-        <v>222312.4137077861</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>301182.4016749752</v>
+        <v>301182.4016749751</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>235145.2102775614</v>
+        <v>235145.2102775613</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>11941.75496939596</v>
       </c>
       <c r="C4" t="n">
-        <v>11941.75496939597</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="D4" t="n">
         <v>11941.75496939596</v>
@@ -26429,28 +26429,28 @@
         <v>11941.75496939596</v>
       </c>
       <c r="F4" t="n">
-        <v>11941.75496939597</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="N4" t="n">
         <v>15116.17365792743</v>
@@ -26478,40 +26478,40 @@
         <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="F5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="P5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-179081.6385171286</v>
+        <v>-179426.1831186175</v>
       </c>
       <c r="C6" t="n">
-        <v>122100.7631578466</v>
+        <v>121756.2185563576</v>
       </c>
       <c r="D6" t="n">
-        <v>122100.7631578466</v>
+        <v>121756.2185563575</v>
       </c>
       <c r="E6" t="n">
-        <v>155728.3631578467</v>
+        <v>155383.8185563576</v>
       </c>
       <c r="F6" t="n">
-        <v>155728.3631578467</v>
+        <v>155383.8185563576</v>
       </c>
       <c r="G6" t="n">
-        <v>83979.68594074692</v>
+        <v>83928.65527856252</v>
       </c>
       <c r="H6" t="n">
-        <v>188148.9657223667</v>
+        <v>188097.9350601822</v>
       </c>
       <c r="I6" t="n">
-        <v>188148.9657223666</v>
+        <v>188097.9350601822</v>
       </c>
       <c r="J6" t="n">
-        <v>-46996.2445551949</v>
+        <v>-47047.27521737915</v>
       </c>
       <c r="K6" t="n">
-        <v>188148.9657223666</v>
+        <v>188097.9350601823</v>
       </c>
       <c r="L6" t="n">
-        <v>188148.9657223666</v>
+        <v>188097.9350601822</v>
       </c>
       <c r="M6" t="n">
-        <v>188148.9657223666</v>
+        <v>188097.9350601823</v>
       </c>
       <c r="N6" t="n">
-        <v>188148.9657223665</v>
+        <v>188097.9350601822</v>
       </c>
       <c r="O6" t="n">
-        <v>155728.3631578465</v>
+        <v>155383.8185563575</v>
       </c>
       <c r="P6" t="n">
-        <v>155728.3631578466</v>
+        <v>155383.8185563576</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="D4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="E4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="F4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="P4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>380.0619507876013</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>380.0619507876013</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>898.7219667852555</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>511.3026454403762</v>
       </c>
       <c r="N2" t="n">
-        <v>256.4782487206148</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O2" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34786,13 +34786,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>29.76929843599509</v>
+        <v>837.8655862792847</v>
       </c>
       <c r="N3" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O3" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>218.7397960448372</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N5" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O5" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>80.49194655707541</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>624.416184983141</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>699.7421113697987</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>8.728503328464916</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>898.7219667852553</v>
+        <v>263.7802980312926</v>
       </c>
       <c r="M8" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N8" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>29.51326903606492</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M9" t="n">
-        <v>898.7219667852553</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="N9" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M11" t="n">
-        <v>898.7219667852553</v>
+        <v>211.4377467341589</v>
       </c>
       <c r="N11" t="n">
-        <v>672.1301502737379</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N12" t="n">
-        <v>898.7219667852553</v>
+        <v>459.4014208084117</v>
       </c>
       <c r="O12" t="n">
-        <v>29.51326903606477</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>898.7219667852553</v>
+        <v>806.032720211898</v>
       </c>
       <c r="M14" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>139.6743035055494</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>829.040056380352</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>886.8993927061629</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>274.4419083632233</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>487.2320584543432</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>771.0743027228281</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>989.7889970553492</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36615,10 +36615,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37083,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184349</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37317,19 +37317,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>333.1613907719469</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,13 +37548,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>886.8993927061629</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>596.4494207761006</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M41" t="n">
-        <v>137.7344761126315</v>
+        <v>717.1706522601934</v>
       </c>
       <c r="N41" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37800,10 +37800,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0.136126561108803</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M44" t="n">
-        <v>145.0365254233097</v>
+        <v>394.7260982083764</v>
       </c>
       <c r="N44" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
@@ -38110,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
